--- a/23_densidade-demográfica-por-macroárea_2020.xlsx
+++ b/23_densidade-demográfica-por-macroárea_2020.xlsx
@@ -422,21 +422,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MRVU</t>
+          <t>MRVRA</t>
         </is>
       </c>
       <c r="B7">
-        <v>166.8897904675584</v>
+        <v>104.4789259921346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MRVURA</t>
+          <t>MRVU</t>
         </is>
       </c>
       <c r="B8">
-        <v>104.4789259921346</v>
+        <v>166.8897904675584</v>
       </c>
     </row>
     <row r="9">
